--- a/Excel/Top 1000 Words in Gilaki.xlsx
+++ b/Excel/Top 1000 Words in Gilaki.xlsx
@@ -55,23 +55,7 @@
     <t xml:space="preserve">باقى مانده</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">باقى مانده</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> شير را داخل ظرف بريز</t>
-    </r>
+    <t xml:space="preserve">باقى مانده شير را داخل ظرف بريز</t>
   </si>
   <si>
     <t xml:space="preserve">اۊ وخت</t>
@@ -8609,10 +8593,10 @@
     <t xml:space="preserve">گاگلف أرأ دٚوار کۊنم</t>
   </si>
   <si>
-    <t xml:space="preserve">اغلب اوقات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اغلب اوقات از اين طرف عبور مى‌کنم</t>
+    <t xml:space="preserve">بعضی اوقات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بعضی اوقات از اين طرف عبور مى‌کنم</t>
   </si>
   <si>
     <t xml:space="preserve">گب</t>
@@ -11864,7 +11848,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11874,10 +11858,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11901,16 +11881,16 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A708" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C729" activeCellId="0" sqref="C729:D729"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11951,7 +11931,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki.xlsx
+++ b/Excel/Top 1000 Words in Gilaki.xlsx
@@ -4267,7 +4267,7 @@
     <t xml:space="preserve">چاپلا زئن</t>
   </si>
   <si>
-    <t xml:space="preserve">خؤشالي جأ کرأ چاپلا زئن دره</t>
+    <t xml:space="preserve">خؤشالي جأ کرأ چاپلا زنه</t>
   </si>
   <si>
     <t xml:space="preserve">کف زدن</t>
@@ -8875,10 +8875,10 @@
     <t xml:space="preserve">ايمرۊ گؤرخانه وارش بۊ</t>
   </si>
   <si>
-    <t xml:space="preserve">آسمان قلنبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">امروز باران با آسمان قلنبه بود</t>
+    <t xml:space="preserve">رعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امروز باران با رعد بود</t>
   </si>
   <si>
     <t xml:space="preserve">گؤفتن</t>
@@ -11848,7 +11848,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11859,6 +11859,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -11882,7 +11886,7 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A708" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C729" activeCellId="0" sqref="C729:D729"/>
+      <selection pane="topLeft" activeCell="C729" activeCellId="1" sqref="C753:D753 C729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22092,7 +22096,7 @@
       <c r="B729" s="2" t="s">
         <v>2856</v>
       </c>
-      <c r="C729" s="2" t="s">
+      <c r="C729" s="3" t="s">
         <v>2857</v>
       </c>
       <c r="D729" s="2" t="s">

--- a/Excel/Top 1000 Words in Gilaki.xlsx
+++ b/Excel/Top 1000 Words in Gilaki.xlsx
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>شهين ازداج کرد</t>
+          <t>شهين شوهر کرد</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>تقى هم ازدواج کرد</t>
+          <t>تقى هم زن گرفته است</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>سانچؤ زئن دريم</t>
+          <t>جه وس هوا سرده سانچؤ زئن دريم</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>داريم سينه‌پهلو می‌کنیم</t>
+          <t>از بس هوا سرد است داريم سينه‌پهلو می‌کنیم</t>
         </is>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki.xlsx
+++ b/Excel/Top 1000 Words in Gilaki.xlsx
@@ -16285,220 +16285,220 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>وأمرازه</t>
+          <t>وأمجي</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>أ گبان ترأ وأمرازه</t>
+          <t>چي ره وأمجي؟</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>شايسته نيست</t>
+          <t>جستجو می‌کنی</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>اين حرف‌ها شايسته تو نيست</t>
+          <t>برای چه جستجو می‌کنی؟</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>وأورس</t>
+          <t>وأمرازه</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>اۊ زناکأ وأورس</t>
+          <t>أ گبان ترأ وأمرازه</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>بپرس</t>
+          <t>شايسته نيست</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>از آن زن بپرس</t>
+          <t>اين حرف‌ها شايسته تو نيست</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>وأورسي</t>
+          <t>وأورس</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>هرچي وأورسي ترأ گب بسرأ کۊنه</t>
+          <t>اۊ زناکأ وأورس</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>بپرسی</t>
+          <t>بپرس</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>هر چه بپرسى حرف را عوض مى‌کند</t>
+          <t>از آن زن بپرس</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>وأچئن</t>
+          <t>وأورسي</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>خۊ خانه سرأ وأچئن دره</t>
+          <t>هرچي وأورسي ترأ گب بسرأ کۊنه</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>کندن</t>
+          <t>بپرسی</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>دارد سقف خانه‌اش را برمی‌کند</t>
+          <t>هر چه بپرسى حرف را عوض مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>وأچۊک</t>
+          <t>وأچئن</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>دارأ وأچۊک</t>
+          <t>خۊ خانه سرأ وأچئن دره</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>بچسب و بالا برو</t>
+          <t>کندن</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>به درخت بچسب و بالا برو</t>
+          <t>دارد سقف خانه‌اش را برمی‌کند</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>وأکفتم</t>
+          <t>وأچۊک</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>دئه وأکفتم</t>
+          <t>دارأ وأچۊک</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>از پا افتادم</t>
+          <t>بچسب و بالا برو</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>ديگر از پا افتادم</t>
+          <t>به درخت بچسب و بالا برو</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>وأکفته</t>
+          <t>وأکفتم</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>أمرأ وأکفته</t>
+          <t>دئه وأکفتم</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>پيله کرد</t>
+          <t>از پا افتادم</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>به ما پيله کرد</t>
+          <t>ديگر از پا افتادم</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>وأکۊده</t>
+          <t>وأکفته</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>مأمدأ وأکۊده بامؤ</t>
+          <t>أمرأ وأکفته</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>رساند</t>
+          <t>پيله کرد</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>محمد را (به مقصد) رساند و آمد</t>
+          <t>به ما پيله کرد</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>وأکۊن</t>
+          <t>وأکۊده</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>درأ وأکۊن</t>
+          <t>مأمدأ وأکۊده بامؤ</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>باز کن</t>
+          <t>رساند</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>در را باز کن</t>
+          <t>محمد را (به مقصد) رساند و آمد</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>وأگردان</t>
+          <t>وأکۊن</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>أ کيتابأ تۊ وأگردان بۊکۊدي؟</t>
+          <t>درأ وأکۊن</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>ترجمه</t>
+          <t>باز کن</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>اين کتاب را تو ترجمه کردى؟</t>
+          <t>در را باز کن</t>
         </is>
       </c>
     </row>
@@ -16510,127 +16510,127 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>اۊ کۊکۊ-يأ وأگردان</t>
+          <t>أ کيتابأ تۊ وأگردان بۊکۊدي؟</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>پشت و رو کن</t>
+          <t>ترجمه</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>آن کتلت را پشت و رو کن</t>
+          <t>اين کتاب را تو ترجمه کردى؟</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>وأگردانئده</t>
+          <t>وأگردان</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>أ خيابانˇ ايسمأ وأگردانئده</t>
+          <t>اۊ کۊکۊ-يأ وأگردان</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>تغيير داده‌اند</t>
+          <t>پشت و رو کن</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>نام اين خيابان را تغيير داده‌اند</t>
+          <t>آن کتلت را پشت و رو کن</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>وأگردانئم</t>
+          <t>وأگردانئده</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>کيتابأ وأگردانئم</t>
+          <t>أ خيابانˇ ايسمأ وأگردانئده</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>عودت دادم</t>
+          <t>تغيير داده‌اند</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>کتاب را عودت دادم</t>
+          <t>نام اين خيابان را تغيير داده‌اند</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>وأگيران</t>
+          <t>وأگردانئم</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>گازأ وأگيران</t>
+          <t>کيتابأ وأگردانئم</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>روشن کن</t>
+          <t>عودت دادم</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>اجاق را روشن کن</t>
+          <t>کتاب را عودت دادم</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>وئر</t>
+          <t>وأگيران</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>تأني أ رۊخانأ وئر بزني؟</t>
+          <t>گازأ وأگيران</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>گذشتن از عرض رودخانه</t>
+          <t>روشن کن</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>مى‌توانى از عرض اين رودخانه عبور کنى؟</t>
+          <t>اجاق را روشن کن</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>وا</t>
+          <t>وئر</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>أيتأ اۊيتأ نأره همه وا بأئيد</t>
+          <t>تأني أ رۊخانأ وئر بزني؟</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>بايد</t>
+          <t>گذشتن از عرض رودخانه</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>اين و آن ندارد همه بايد بيايند</t>
+          <t>مى‌توانى از عرض اين رودخانه عبور کنى؟</t>
         </is>
       </c>
     </row>
@@ -16642,17 +16642,17 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>سردˇ وا دمه</t>
+          <t>أيتأ اۊيتأ نأره همه وا بأئيد</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>باد</t>
+          <t>بايد</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>باد سرد مى‌وزد</t>
+          <t>اين و آن ندارد همه بايد بيايند</t>
         </is>
       </c>
     </row>
@@ -16664,369 +16664,369 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>هرچي خۊرم هنده مرأ وا</t>
+          <t>سردˇ وا دمه</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>ميل داشتن</t>
+          <t>باد</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>هرچه مى‌خورم باز هم ميل دارم</t>
+          <t>باد سرد مى‌وزد</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>وابؤن</t>
+          <t>وا</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>در وابؤ</t>
+          <t>هرچي خۊرم هنده مرأ وا</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>باز شدن</t>
+          <t>ميل داشتن</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>در باز شد</t>
+          <t>هرچه مى‌خورم باز هم ميل دارم</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>واترکانم</t>
+          <t>وابؤن</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>ترأ بيدينم واترکانم</t>
+          <t>در وابؤ</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>جر می‌دهم</t>
+          <t>باز شدن</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>تو را ببينم جر می‌دهم</t>
+          <t>در باز شد</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>واترکستم</t>
+          <t>واترکانم</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>خأنده جأ واترکستم</t>
+          <t>ترأ بيدينم واترکانم</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>ترکيدم</t>
+          <t>جر می‌دهم</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>از خنده ترکيدم</t>
+          <t>تو را ببينم جر می‌دهم</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>واتين</t>
+          <t>واترکستم</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>گيدي کؤرؤنا واتين دأره</t>
+          <t>خأنده جأ واترکستم</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>مسرى</t>
+          <t>ترکيدم</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>مى‌گويند کرونا مسرى است</t>
+          <t>از خنده ترکيدم</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>واجؤر</t>
+          <t>واتين</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>أ بج واجؤر کۊنه</t>
+          <t>گيدي کؤرؤنا واتين دأره</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>رى</t>
+          <t>مسرى</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>اين برنج رى مى‌کند</t>
+          <t>مى‌گويند کرونا مسرى است</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>واجام</t>
+          <t>واجؤر</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>زرد ٚ واجامأ مأنه</t>
+          <t>أ بج واجؤر کۊنه</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>بادنجان</t>
+          <t>رى</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>مانند بادنجان زرد است</t>
+          <t>اين برنج رى مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>واجاوره</t>
+          <t>واجام</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>أمرأ خۊره واجاوره</t>
+          <t>زرد ٚ واجامأ مأنه</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>قى می‌کند</t>
+          <t>بادنجان</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>ما را مى‌خورد دوباره قى مى‌کند</t>
+          <t>مانند بادنجان زرد است</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>واخان</t>
+          <t>واجاوره</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>أنأ واخان</t>
+          <t>أمرأ خۊره واجاوره</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>دوباره بخوان</t>
+          <t>قى می‌کند</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>اين را دوباره بخوان</t>
+          <t>ما را مى‌خورد دوباره قى مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>واخب</t>
+          <t>واخان</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>أمانم ديرۊ واخبأ بؤستيم</t>
+          <t>أنأ واخان</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>آگاه</t>
+          <t>دوباره بخوان</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>ما هم ديروز آگاه شديم</t>
+          <t>اين را دوباره بخوان</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>واخۊر</t>
+          <t>واخب</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>آب واخۊر</t>
+          <t>أمانم ديرۊ واخبأ بؤستيم</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>بنوش</t>
+          <t>آگاه</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>آب بنوش</t>
+          <t>ما هم ديروز آگاه شديم</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>واد</t>
+          <t>واخۊر</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>فچم تي وادأ بيگيرم</t>
+          <t>آب واخۊر</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>اندازه</t>
+          <t>بنوش</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>خم شو اندازه‌ات را بگيرم</t>
+          <t>آب بنوش</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>واداشته</t>
+          <t>واد</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>أمرأ واداشته أ سردˇ هوا دۊرۊن بئسيم</t>
+          <t>فچم تي وادأ بيگيرم</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>وادار کرد</t>
+          <t>اندازه</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>ما را وادار کرد در اين  هواى سرد بمانيم</t>
+          <t>خم شو اندازه‌ات را بگيرم</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>وارؤختن</t>
+          <t>واداشته</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>گيلانأ وارؤختن درد</t>
+          <t>أمرأ واداشته أ سردˇ هوا دۊرۊن بئسيم</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>غارت کردن</t>
+          <t>وادار کرد</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>دارند گيلان را غارت می‌کنند</t>
+          <t>ما را وادار کرد در اين  هواى سرد بمانيم</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>واران</t>
+          <t>وارؤختن</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>ديرۊ واران بامؤبۊ</t>
+          <t>گيلانأ وارؤختن درد</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>باران</t>
+          <t>غارت کردن</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>ديروز باران آمده بود</t>
+          <t>دارند گيلان را غارت می‌کنند</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>وارستن</t>
+          <t>واران</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>واران وارستن دره</t>
+          <t>ديرۊ واران بامؤبۊ</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>باريدن</t>
+          <t>باران</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>دارد باران مى‌بارد</t>
+          <t>ديروز باران آمده بود</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>وارسي</t>
+          <t>وارستن</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همهٰ وارسي کۊديد</t>
+          <t>واران وارستن دره</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>بازرسی</t>
+          <t>باريدن</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>کمى آن طرف‌تر همه را بازرسی می‌کردند</t>
+          <t>دارد باران مى‌بارد</t>
         </is>
       </c>
     </row>
@@ -17038,259 +17038,259 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>وا أول وارسي بۊکۊنيد</t>
+          <t>ايپچه اۊشنتر همهٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>تحقيق</t>
+          <t>بازرسی</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>بايد ابتدا تحقيق کنيد</t>
+          <t>کمى آن طرف‌تر همه را بازرسی می‌کردند</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>واز</t>
+          <t>وارسي</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>چيچيني-يانأ فأندر چۊتؤ واز کۊنیدي</t>
+          <t>وا أول وارسي بۊکۊنيد</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>پرواز</t>
+          <t>تحقيق</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>گنجشک‌ها را نگاه کن چگونه پرواز می‌کنند</t>
+          <t>بايد ابتدا تحقيق کنيد</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>واز ؤ ولنگ</t>
+          <t>واز</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>زاکان پارکˇ دۊرۊن چي واز ؤ ولنگي کۊنيدي</t>
+          <t>چيچيني-يانأ فأندر چۊتؤ واز کۊنیدي</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>جست و خيز</t>
+          <t>پرواز</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>بچه‌ها در پارک چه جست و خيزى مى‌کنند</t>
+          <t>گنجشک‌ها را نگاه کن چگونه پرواز می‌کنند</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>وازده</t>
+          <t>واز ؤ ولنگ</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>مرأ وازده بأورده</t>
+          <t>زاکان پارکˇ دۊرۊن چي واز ؤ ولنگي کۊنيدي</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>به تنگ آمدن</t>
+          <t>جست و خيز</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>من را به تنگ آورده است</t>
+          <t>بچه‌ها در پارک چه جست و خيزى مى‌کنند</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>وازن</t>
+          <t>وازده</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>تي کفشأ وازن بيشيم</t>
+          <t>مرأ وازده بأورده</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>بپوش</t>
+          <t>به تنگ آمدن</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>کفش‌ات را بپوش برويم</t>
+          <t>من را به تنگ آورده است</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>واسئن</t>
+          <t>وازن</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>اۊن چیسه ترأ وأسئن دري؟</t>
+          <t>تي کفشأ وازن بيشيم</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>ماليدن</t>
+          <t>بپوش</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>آن چيست داری به خودت می‌مالی؟</t>
+          <t>کفش‌ات را بپوش برويم</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>واسرأ دأن</t>
+          <t>واسئن</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>أمرأ واسرأ دأ</t>
+          <t>اۊن چیسه ترأ وأسئن دري؟</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>پى نخود سياه فرستادن</t>
+          <t>ماليدن</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>ما را پى نخود سياه فرستاد</t>
+          <t>آن چيست داری به خودت می‌مالی؟</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>واسۊجانه</t>
+          <t>واسرأ دأن</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>أمي خۊنا واسۊجانه تا خۊ مدرکأ فأگيفت</t>
+          <t>أمرأ واسرأ دأ</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>تا نهايت سوزاند</t>
+          <t>پى نخود سياه فرستادن</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>خون ما را تا نهايت سوزاند تا مدرک‌اش را گرفت</t>
+          <t>ما را پى نخود سياه فرستاد</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>واسۊخسته</t>
+          <t>واسۊجانه</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>ترأ واسۊخسته آدم هفتاد سال پاکي نأره</t>
+          <t>أمي خۊنا واسۊجانه تا خۊ مدرکأ فأگيفت</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>برخورد کرده</t>
+          <t>تا نهايت سوزاند</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>آدم به تو برخورد کند تا هفتاد سال پاک نيست</t>
+          <t>خون ما را تا نهايت سوزاند تا مدرک‌اش را گرفت</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>واش</t>
+          <t>واسۊخسته</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>گابˇ ره خاش فۊکۊنه سکˇ ره خاش</t>
+          <t>ترأ واسۊخسته آدم هفتاد سال پاکي نأره</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>علف</t>
+          <t>برخورد کرده</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>براى گاو استخوان مى‌ريزد براى سگ علف</t>
+          <t>آدم به تو برخورد کند تا هفتاد سال پاک نيست</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>واشان</t>
+          <t>واش</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>بۊشۊ جايأ واشان</t>
+          <t>گابˇ ره خاش فۊکۊنه سکˇ ره خاش</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>پهن کن</t>
+          <t>علف</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>برو رختخواب را پهن کن</t>
+          <t>براى گاو استخوان مى‌ريزد براى سگ علف</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>واشکاف</t>
+          <t>واشان</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>أ پرهن ٚ درزأ واشکاف</t>
+          <t>بۊشۊ جايأ واشان</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>بازکن</t>
+          <t>پهن کن</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>درز اين پيراهن را باز کن</t>
+          <t>برو رختخواب را پهن کن</t>
         </is>
       </c>
     </row>
@@ -17302,134 +17302,134 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>مرأ حالي نؤبؤسته ايپچه واشکاف</t>
+          <t>أ پرهن ٚ درزأ واشکاف</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>بيشتر توضيح بده</t>
+          <t>بازکن</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>متوجه نشدم کمى بيشتر توضيح بده</t>
+          <t>درز اين پيراهن را باز کن</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>واشکافيدي</t>
+          <t>واشکاف</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>باهارˇ وخت گۊلان واشکافيدي</t>
+          <t>مرأ حالي نؤبؤسته ايپچه واشکاف</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>می‌شکفند</t>
+          <t>بيشتر توضيح بده</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>فصل بهار گل‌ها مى‌شکفند</t>
+          <t>متوجه نشدم کمى بيشتر توضيح بده</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>والان</t>
+          <t>واشکافيدي</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>تي پرهنأ اۊيأ والان</t>
+          <t>باهارˇ وخت گۊلان واشکافيدي</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>آويزان کن</t>
+          <t>می‌شکفند</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>پيراهن‌ات را آن جا آويزان کن</t>
+          <t>فصل بهار گل‌ها مى‌شکفند</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>والنگ</t>
+          <t>والان</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>نيصفˇ را والنگأ دأ</t>
+          <t>تي پرهنأ اۊيأ والان</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>انصراف</t>
+          <t>آويزان کن</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>نيمه راه انصراف داد</t>
+          <t>پيراهن‌ات را آن جا آويزان کن</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>واليشتن</t>
+          <t>والنگ</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>گاب خۊ ماندهٰ واليشتن دره</t>
+          <t>نيصفˇ را والنگأ دأ</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>ليسيدن</t>
+          <t>انصراف</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>گاو دارد گوساله‌اش را مى‌ليسد</t>
+          <t>نيمه راه انصراف داد</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>وامختن</t>
+          <t>واليشتن</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>چي-يأ وأمختن دري؟</t>
+          <t>گاب خۊ ماندهٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>جستجو</t>
+          <t>ليسيدن</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>چه چيزی را جستجو می‌کنی؟</t>
+          <t>گاو دارد گوساله‌اش را مى‌ليسد</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>وامختن دري</t>
+          <t>وامختن</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>جستجو می‌کنی</t>
+          <t>جستجو</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -17451,176 +17451,176 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>واهيل</t>
+          <t>وامختن دري</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>مي ديل واهيلأ بؤسته</t>
+          <t>چي-يأ وأمختن دري؟</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>بى تاب</t>
+          <t>جستجو می‌کنی</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>دلم بى تاب شده است</t>
+          <t>چه چيزی را جستجو می‌کنی؟</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>واويجان</t>
+          <t>واهيل</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>مائي-يأ خؤب واويجان</t>
+          <t>مي ديل واهيلأ بؤسته</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>برشته کن</t>
+          <t>بى تاب</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>ماهى را خوب برشته کن</t>
+          <t>دلم بى تاب شده است</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>واوين</t>
+          <t>واويجان</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>أ خالأ واوين</t>
+          <t>مائي-يأ خؤب واويجان</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>ببر</t>
+          <t>برشته کن</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>اين شاخه را ببر</t>
+          <t>ماهى را خوب برشته کن</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>واپس</t>
+          <t>واوين</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>چي ره واپس شؤن دري؟</t>
+          <t>أ خالأ واوين</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>عقب</t>
+          <t>ببر</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>براى چه دارى به عقب مى‌روى؟</t>
+          <t>اين شاخه را ببر</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>واپلکه</t>
+          <t>واپس</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>تيانأ بنه بدأ ايپچه واپلکه</t>
+          <t>چي ره واپس شؤن دري؟</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>خيس بخورد</t>
+          <t>عقب</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>ديگ را بگذار کمى خيس بخورد</t>
+          <t>براى چه دارى به عقب مى‌روى؟</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>واچرد</t>
+          <t>واپلکه</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>تا نانأ بيده نيصفأ وأچرد</t>
+          <t>تيانأ بنه بدأ ايپچه واپلکه</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>تکه‌ای از چيزی را کندن</t>
+          <t>خيس بخورد</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>به محض دیدن نان نيمى از آن را کند</t>
+          <t>ديگ را بگذار کمى خيس بخورد</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>واکاريد</t>
+          <t>واچرد</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>بعضي-يان خأئيد أمي ميانأ واکاريد</t>
+          <t>تا نانأ بيده نيصفأ وأچرد</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>شکرآب کنند</t>
+          <t>تکه‌ای از چيزی را کندن</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>بعضی‌ها می‌خواهند بين ما را شکرآب کنند</t>
+          <t>به محض دیدن نان نيمى از آن را کند</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>واکاشته</t>
+          <t>واکاريد</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>أمرأ أيأ واکاشته</t>
+          <t>بعضي-يان خأئيد أمي ميانأ واکاريد</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>به انتظار گذاشت</t>
+          <t>شکرآب کنند</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>ما را اين‌جا به انتظار گذاشت</t>
+          <t>بعضی‌ها می‌خواهند بين ما را شکرآب کنند</t>
         </is>
       </c>
     </row>
@@ -17637,276 +17637,276 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>منتظر گذاشت</t>
+          <t>به انتظار گذاشت</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>ما را اين‌جا منتظر گذاشت</t>
+          <t>ما را اين‌جا به انتظار گذاشت</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>واگير</t>
+          <t>واکاشته</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>أن ٚ مأر أنˇ گبأ واگير کۊنه</t>
+          <t>أمرأ أيأ واکاشته</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>تصديق حرف</t>
+          <t>منتظر گذاشت</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>مادرش حرف او را تصديق می‌کند</t>
+          <t>ما را اين‌جا منتظر گذاشت</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>وخت</t>
+          <t>واگير</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>باهارˇ وخت أيم گيلان</t>
+          <t>أن ٚ مأر أنˇ گبأ واگير کۊنه</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>فصل</t>
+          <t>تصديق حرف</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>فصل بهار به گيلان مى‌آيم</t>
+          <t>مادرش حرف او را تصديق می‌کند</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>ودره</t>
+          <t>وخت</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>اۊ ودرهˈ فأدن مرأ</t>
+          <t>باهارˇ وخت أيم گيلان</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>سطل</t>
+          <t>فصل</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>آن سطل را به من بده</t>
+          <t>فصل بهار به گيلان مى‌آيم</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ورأچۊک</t>
+          <t>ودره</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>بامؤ أمي ورأچۊک بينيشته</t>
+          <t>اۊ ودرهˈ فأدن مرأ</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>در کنار</t>
+          <t>سطل</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>آمد در کنار ما نشست</t>
+          <t>آن سطل را به من بده</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>ورجا</t>
+          <t>ورأچۊک</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>کيتابان أمدˇ ورجا نهأ</t>
+          <t>بامؤ أمي ورأچۊک بينيشته</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>نزد</t>
+          <t>در کنار</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>کتاب‌ها نزد احمد است</t>
+          <t>آمد در کنار ما نشست</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>ورف</t>
+          <t>ورجا</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>أجۊر ورف کي تا هسأ بيده بۊ؟</t>
+          <t>کيتابان أمدˇ ورجا نهأ</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>برف</t>
+          <t>نزد</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>اين‌گونه برف چه کسى تا حالا ديده بود؟</t>
+          <t>کتاب‌ها نزد احمد است</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>وسته</t>
+          <t>ورف</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>هأنقد مرأ وسته</t>
+          <t>أجۊر ورف کي تا هسأ بيده بۊ؟</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>کافى است</t>
+          <t>برف</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>همين قدر براى من کافى است</t>
+          <t>اين‌گونه برف چه کسى تا حالا ديده بود؟</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>ول</t>
+          <t>وسته</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>آتشˇ ولأ فأندر</t>
+          <t>هأنقد مرأ وسته</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>شعله آتش</t>
+          <t>کافى است</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>شعله آتش را نگاه کن</t>
+          <t>همين قدر براى من کافى است</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>ولکي</t>
+          <t>ول</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>ايپچه بئسيد ولکي أميرم بأيه</t>
+          <t>آتشˇ ولأ فأندر</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>شايد</t>
+          <t>شعله آتش</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>کمى صبر کنيد شايد امير هم بيايد</t>
+          <t>شعله آتش را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>ولگ</t>
+          <t>ولکي</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>پئيز ولگان چي خؤشگيلأ بيد</t>
+          <t>ايپچه بئسيد ولکي أميرم بأيه</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>برگ</t>
+          <t>شايد</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>در پاييز برگ‌ها چه زيبا می‌شوند</t>
+          <t>کمى صبر کنيد شايد امير هم بيايد</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>وهاشته</t>
+          <t>ولگ</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>مي پئر مرأ وهاشته بأيم</t>
+          <t>پئيز ولگان چي خؤشگيلأ بيد</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>اجازه داد</t>
+          <t>برگ</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>پدرم به من اجازه داد بيايم</t>
+          <t>در پاييز برگ‌ها چه زيبا می‌شوند</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ويريزانه</t>
+          <t>وهاشته</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>أمرأ أمي جا سر ويريزانه</t>
+          <t>مي پئر مرأ وهاشته بأيم</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>بلند کرد</t>
+          <t>اجازه داد</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>ما را از جايمان بلند کرد</t>
+          <t>پدرم به من اجازه داد بيايم</t>
         </is>
       </c>
     </row>
@@ -17918,61 +17918,61 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>خابˇ جا أمرأ ويريزانه</t>
+          <t>أمرأ أمي جا سر ويريزانه</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>بيدار کرد</t>
+          <t>بلند کرد</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>ما را از خواب بيدار کرد</t>
+          <t>ما را از جايمان بلند کرد</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>ويريشتد</t>
+          <t>ويريزانه</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>گيلکان هأتؤئيد، مشرۊطه زماتم هأ ايوار ويريشتد</t>
+          <t>خابˇ جا أمرأ ويريزانه</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>قيام کردند</t>
+          <t>بيدار کرد</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>گيلک‌ها همين‌گونه هستند، در زمان مشروطه هم به‌يک‌باره قيام کردند</t>
+          <t>ما را از خواب بيدار کرد</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ويريشته</t>
+          <t>ويريشتد</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>اۊن کيسه ويريشته؟</t>
+          <t>گيلکان هأتؤئيد، مشرۊطه زماتم هأ ايوار ويريشتد</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>بلند شد</t>
+          <t>قيام کردند</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>آن کيست که بلند شد؟</t>
+          <t>گيلک‌ها همين‌گونه هستند، در زمان مشروطه هم به‌يک‌باره قيام کردند</t>
         </is>
       </c>
     </row>
@@ -17984,523 +17984,523 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>بۊشۊ بيدين زأى ويريشته؟</t>
+          <t>اۊن کيسه ويريشته؟</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>بيدار شد</t>
+          <t>بلند شد</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>برو ببين بچه بيدار شد؟</t>
+          <t>آن کيست که بلند شد؟</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ويشتا</t>
+          <t>ويريشته</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>مرأ ويشتايه</t>
+          <t>بۊشۊ بيدين زأى ويريشته؟</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>گرسنه</t>
+          <t>بيدار شد</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>گرسنه هستم</t>
+          <t>برو ببين بچه بيدار شد؟</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>ويشتر</t>
+          <t>ويشتا</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>قاتؤق ويشتر دۊکۊن</t>
+          <t>مرأ ويشتايه</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>بيشتر</t>
+          <t>گرسنه</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>خورش بيشتر بريز</t>
+          <t>گرسنه هستم</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ويني زئک</t>
+          <t>ويشتر</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>تي دۊماغ ويني زئکأ پأکۊن</t>
+          <t>قاتؤق ويشتر دۊکۊن</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>آب بينی</t>
+          <t>بيشتر</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>آب بينی‌ات را پاک کن</t>
+          <t>خورش بيشتر بريز</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>ويگير</t>
+          <t>ويني زئک</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>گۊشي-يأ ويگير</t>
+          <t>تي دۊماغ ويني زئکأ پأکۊن</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>بردار</t>
+          <t>آب بينی</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>گوشى را بردار</t>
+          <t>آب بينی‌ات را پاک کن</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>وٚلٚش</t>
+          <t>ويگير</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>بيأ بيشيم وٚلٚش چيني</t>
+          <t>گۊشي-يأ ويگير</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>تمشک</t>
+          <t>بردار</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>بيا برويم تمشک بچينيم</t>
+          <t>گوشى را بردار</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>يأ</t>
+          <t>وٚلٚش</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>أنأ خأئي يأ اۊنأ؟</t>
+          <t>بيأ بيشيم وٚلٚش چيني</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>يا</t>
+          <t>تمشک</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>اين را مى‌خواهى يا آن را؟</t>
+          <t>بيا برويم تمشک بچينيم</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ياره</t>
+          <t>يأ</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>خاليشواشأ فأدن مي مأر ته ره ياره</t>
+          <t>أنأ خأئي يأ اۊنأ؟</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>می‌سايد</t>
+          <t>يا</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>پونه را به مادرم بده براى تو مى‌سايد</t>
+          <t>اين را مى‌خواهى يا آن را؟</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>ياور</t>
+          <t>ياره</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>تأنيد مرأ ياور بديد؟</t>
+          <t>خاليشواشأ فأدن مي مأر ته ره ياره</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>کمک</t>
+          <t>می‌سايد</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>مى‌توانيد به من کمک کنيد؟</t>
+          <t>پونه را به مادرم بده براى تو مى‌سايد</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>پئر</t>
+          <t>ياور</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>مي پئر بۊشؤ کارˇ سر</t>
+          <t>تأنيد مرأ ياور بديد؟</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>پدر</t>
+          <t>کمک</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>پدرم سر کار رفته است</t>
+          <t>مى‌توانيد به من کمک کنيد؟</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>پئر ؤ مأر</t>
+          <t>پئر</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
+          <t>مي پئر بۊشؤ کارˇ سر</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>پدر و مادر</t>
+          <t>پدر</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>پدر و مادرم خانه نيستند</t>
+          <t>پدرم سر کار رفته است</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>پئرˇ زن</t>
+          <t>پئر ؤ مأر</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>همه-تا پئرˇ زنان کي بد ني-ئيد</t>
+          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>نامادرى</t>
+          <t>پدر و مادر</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>تمام نامادرى‌ها که بد نيستند</t>
+          <t>پدر و مادرم خانه نيستند</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>پئله</t>
+          <t>پئرˇ زن</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
+          <t>همه-تا پئرˇ زنان کي بد ني-ئيد</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>نعلبکی</t>
+          <t>نامادرى</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>چای را درون نعلبکی بريز</t>
+          <t>تمام نامادرى‌ها که بد نيستند</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>پئنج</t>
+          <t>پئله</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>پئنج تا نان خأيم</t>
+          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>پنج</t>
+          <t>نعلبکی</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>پنج عدد نان مى‌خواهم</t>
+          <t>چای را درون نعلبکی بريز</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>پئنجا</t>
+          <t>پئنج</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>زري-يم خۊ پئنجا تۊمۊنأ فأدأ</t>
+          <t>پئنج تا نان خأيم</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>پنجاه</t>
+          <t>پنج</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>زری هم پنجاه تومن‌اش را داد</t>
+          <t>پنج عدد نان مى‌خواهم</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>پا بسر</t>
+          <t>پئنجا</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>زاکأ پا بسر کۊدن نوأ</t>
+          <t>زري-يم خۊ پئنجا تۊمۊنأ فأدأ</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>از روى چيزى گذشتن</t>
+          <t>پنجاه</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>از روى بچه عبور نکن</t>
+          <t>زری هم پنجاه تومن‌اش را داد</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>پا تۊک</t>
+          <t>پا بسر</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>تي پا تۊکˇ سر بئس خانه دۊرۊنأ فأندر</t>
+          <t>زاکأ پا بسر کۊدن نوأ</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>نوک پا</t>
+          <t>از روى چيزى گذشتن</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>روى نوک پايت بايست داخل خانه را نگاه کن</t>
+          <t>از روى بچه عبور نکن</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>پابرانده</t>
+          <t>پا تۊک</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>پابرانده صارا شؤن نوأ</t>
+          <t>تي پا تۊکˇ سر بئس خانه دۊرۊنأ فأندر</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>پابرهنه</t>
+          <t>نوک پا</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>پابرهنه به حياط نرو</t>
+          <t>روى نوک پايت بايست داخل خانه را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>پاخت</t>
+          <t>پابرانده</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>دگرأ بۊخۊردم پاختا بؤستم زيمينˇ سر</t>
+          <t>پابرانده صارا شؤن نوأ</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>پهن</t>
+          <t>پابرهنه</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>تلوتلو خوردم روی زمين پهن شدم</t>
+          <t>پابرهنه به حياط نرو</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>پاستن</t>
+          <t>پاخت</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>کۊجي زاکانأ وا پاستن</t>
+          <t>دگرأ بۊخۊردم پاختا بؤستم زيمينˇ سر</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>محافظت کردن</t>
+          <t>پهن</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>از بچه‌هاى کوچک بايد محافظت کرد</t>
+          <t>تلوتلو خوردم روی زمين پهن شدم</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>پاماله</t>
+          <t>پاستن</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>أن لۊآسˇ پاماله-يه</t>
+          <t>کۊجي زاکانأ وا پاستن</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>رد پا</t>
+          <t>محافظت کردن</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>اين رد پاى روباه است</t>
+          <t>از بچه‌هاى کوچک بايد محافظت کرد</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>پاپى</t>
+          <t>پاماله</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>أمي پاپى بؤبؤسته</t>
+          <t>أن لۊآسˇ پاماله-يه</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>تعقيب</t>
+          <t>رد پا</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>ما را تعقيب کرد</t>
+          <t>اين رد پاى روباه است</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>پاچ</t>
+          <t>پاپى</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>آدم پاچ ببه أمما آردال نبه</t>
+          <t>أمي پاپى بؤبؤسته</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>کوتاه قد</t>
+          <t>تعقيب</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>آدم کوتاه قد باشد اما بلند قد بى‌قواره نباشد</t>
+          <t>ما را تعقيب کرد</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>پاک</t>
+          <t>پاچ</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>پاک خؤرأ بزه نيشتاوستن</t>
+          <t>آدم پاچ ببه أمما آردال نبه</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>به کل</t>
+          <t>کوتاه قد</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>به کل خودش را به نشنيدن زد</t>
+          <t>آدم کوتاه قد باشد اما بلند قد بى‌قواره نباشد</t>
         </is>
       </c>
     </row>
@@ -18512,259 +18512,259 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>سبزي-يانأ پاکۊدي؟</t>
+          <t>پاک خؤرأ بزه نيشتاوستن</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>تميز</t>
+          <t>به کل</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>سبزى‌ها را تميز کردى؟</t>
+          <t>به کل خودش را به نشنيدن زد</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>پت</t>
+          <t>پاک</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دستهٰ پت بزه</t>
+          <t>سبزي-يانأ پاکۊدي؟</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>کرم چوب‌خوار</t>
+          <t>تميز</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>دسته مبل ما را کرم چوب‌خوار خورده است</t>
+          <t>سبزى‌ها را تميز کردى؟</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>پرأ گيفته</t>
+          <t>پت</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>زأى تا خۊ مارأ بيده پرأ گيفته</t>
+          <t>أمي مؤبل ٚ دستهٰ پت بزه</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>بسيار خوشحال شد</t>
+          <t>کرم چوب‌خوار</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>کودک به محض ديدن مادرش بسيار خوشحال شد</t>
+          <t>دسته مبل ما را کرم چوب‌خوار خورده است</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>پرأ گيفتيد</t>
+          <t>پرأ گيفته</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>چيچيني-يان تا پيچايأ بيده-ئيد پرأ گيفتيد</t>
+          <t>زأى تا خۊ مارأ بيده پرأ گيفته</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>پرواز کردند</t>
+          <t>بسيار خوشحال شد</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>گنجشک‌ها تا گربه را ديدند پرواز کردند</t>
+          <t>کودک به محض ديدن مادرش بسيار خوشحال شد</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>پرکاله</t>
+          <t>پرأ گيفتيد</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>ايتأ پرکاله سئب مرأ فأدن</t>
+          <t>چيچيني-يان تا پيچايأ بيده-ئيد پرأ گيفتيد</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>تکه</t>
+          <t>پرواز کردند</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>يک تکه سيب به من بده</t>
+          <t>گنجشک‌ها تا گربه را ديدند پرواز کردند</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>پرکيم</t>
+          <t>پرکاله</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>سرمائي کرأ پرکيم</t>
+          <t>ايتأ پرکاله سئب مرأ فأدن</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>می‌لرزيم</t>
+          <t>تکه</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>از سرما داريم مى‌لرزيم</t>
+          <t>يک تکه سيب به من بده</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>پس</t>
+          <t>پرکيم</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>وا ويشتر حقˇ سأى بۊکۊنم نيويره پس دکفم</t>
+          <t>سرمائي کرأ پرکيم</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>عقب</t>
+          <t>می‌لرزيم</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>بايد بيشتر تلاش کنم وگرنه عقب مى‌افتم</t>
+          <t>از سرما داريم مى‌لرزيم</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>پس بمأنسته</t>
+          <t>پس</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>تي پس-بمانسته غذايأ فۊکۊن چيري-يانˇ ره</t>
+          <t>وا ويشتر حقˇ سأى بۊکۊنم نيويره پس دکفم</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>باقى مانده</t>
+          <t>عقب</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>باقى‌مانده غذايت را براى پرنده‌ها بريز</t>
+          <t>بايد بيشتر تلاش کنم وگرنه عقب مى‌افتم</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>پس ٚ پۊشت</t>
+          <t>پس بمأنسته</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>أشانأ ببر اۊ پس ٚ پۊشت تأود</t>
+          <t>تي پس-بمانسته غذايأ فۊکۊن چيري-يانˇ ره</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>در آخرها</t>
+          <t>باقى مانده</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>اين‌ها را ببر در آن آخرها بينداز</t>
+          <t>باقى‌مانده غذايت را براى پرنده‌ها بريز</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>پسˇ کۊنˇ قاف</t>
+          <t>پس ٚ پۊشت</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>مي تۊمانأ ببرده پسˇ کۊنˇ قاف بنأ</t>
+          <t>أشانأ ببر اۊ پس ٚ پۊشت تأود</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>پشت کوه قاف</t>
+          <t>در آخرها</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>شلوارم را برده پشت کوه قاف گذاشته</t>
+          <t>اين‌ها را ببر در آن آخرها بينداز</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>پسرزأک</t>
+          <t>پسˇ کۊنˇ قاف</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>پسر زأکه أن ٚ تامأ دکفه</t>
+          <t>مي تۊمانأ ببرده پسˇ کۊنˇ قاف بنأ</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>پسربچه</t>
+          <t>پشت کوه قاف</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>پسربچه است هوس می‌کند</t>
+          <t>شلوارم را برده پشت کوه قاف گذاشته</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>پسي</t>
+          <t>پسرزأک</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>أنˇ پسي تي درزأ فأرس</t>
+          <t>پسر زأکه أن ٚ تامأ دکفه</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>بعد از</t>
+          <t>پسربچه</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>بعد از اين به درس‌ات برس</t>
+          <t>پسربچه است هوس می‌کند</t>
         </is>
       </c>
     </row>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>شامˇ پسي أيم شيمي خانه</t>
+          <t>أنˇ پسي تي درزأ فأرس</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -18786,117 +18786,117 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>بعد از شام به خانه شما مى‌آيم</t>
+          <t>بعد از اين به درس‌ات برس</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>پشه دام</t>
+          <t>پسي</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>تاوستانان أگه پشه-دام نمانه خۊفتن نشأ</t>
+          <t>شامˇ پسي أيم شيمي خانه</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>پشه‌بند</t>
+          <t>بعد از</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>تابستان‌ها اگر پشه بند نباشد نمى‌شود خوابيد</t>
+          <t>بعد از شام به خانه شما مى‌آيم</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>پلکان</t>
+          <t>پشه دام</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>پلکانˇ سر نيشتن نوأ</t>
+          <t>تاوستانان أگه پشه-دام نمانه خۊفتن نشأ</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>پله</t>
+          <t>پشه‌بند</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>روى پله‌ها ننشين</t>
+          <t>تابستان‌ها اگر پشه بند نباشد نمى‌شود خوابيد</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>پيت</t>
+          <t>پلکان</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>أمي سئخان همه پيتأ بؤستد</t>
+          <t>پلکانˇ سر نيشتن نوأ</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>غُر</t>
+          <t>پله</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>تمام سيخ‌هاى ما غُر شده‌اند</t>
+          <t>روى پله‌ها ننشين</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>پيسخاله</t>
+          <t>پيت</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>مرأ نوأ ايتأ پيسخاله دۊکۊن</t>
+          <t>أمي سئخان همه پيتأ بؤستد</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>کمی</t>
+          <t>غُر</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>ميل ندارم کمی بريز</t>
+          <t>تمام سيخ‌هاى ما غُر شده‌اند</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>پيش</t>
+          <t>پيسخاله</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>علی أمرأ پيش دکفته</t>
+          <t>مرأ نوأ ايتأ پيسخاله دۊکۊن</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>جلو</t>
+          <t>کمی</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>علی از ما جلو زد</t>
+          <t>ميل ندارم کمی بريز</t>
         </is>
       </c>
     </row>
@@ -18908,1535 +18908,1535 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>پيش کيسه؟</t>
+          <t>علی أمرأ پيش دکفته</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>شروع کننده بازى</t>
+          <t>جلو</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>شروع کننده بازى چه کسى است؟</t>
+          <t>علی از ما جلو زد</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>پيش دٚوٚد</t>
+          <t>پيش</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>مي پيش دٚوٚد کۊيأ نهأ؟</t>
+          <t>پيش کيسه؟</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>پيش‌بند</t>
+          <t>شروع کننده بازى</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>پيش‌بندم کجاست؟</t>
+          <t>شروع کننده بازى چه کسى است؟</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>پيش گب</t>
+          <t>پيش دٚوٚد</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>کيتاب تۊمانأ بؤسته بمانسته أنˇ پيش گب</t>
+          <t>مي پيش دٚوٚد کۊيأ نهأ؟</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>مقدمه</t>
+          <t>پيش‌بند</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>کتاب تمام شده مقدمه‌اش مانده است</t>
+          <t>پيش‌بندم کجاست؟</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>پيشأشؤ</t>
+          <t>پيش گب</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>فردأ أمي مئمانان أئيدي وا بيشيم أشانˇ پيشاشؤ</t>
+          <t>کيتاب تۊمانأ بؤسته بمانسته أنˇ پيش گب</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>پيشواز</t>
+          <t>مقدمه</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>فردا مهمان‌هاى ما مى‌آيند بايد به پيشوازشان برويم</t>
+          <t>کتاب تمام شده مقدمه‌اش مانده است</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>پيل</t>
+          <t>پيشأشؤ</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>مي دس پيل بۊکۊده</t>
+          <t>فردأ أمي مئمانان أئيدي وا بيشيم أشانˇ پيشاشؤ</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>تاول</t>
+          <t>پيشواز</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>دستم تاول زده است</t>
+          <t>فردا مهمان‌هاى ما مى‌آيند بايد به پيشوازشان برويم</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>پيله</t>
+          <t>پيل</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>ايتأ پيله سئب مرأ فأدن</t>
+          <t>مي دس پيل بۊکۊده</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>بزرگ</t>
+          <t>تاول</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>يک سيب بزرگ به من بده</t>
+          <t>دستم تاول زده است</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>پيله-سۊس</t>
+          <t>پيله</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>زأکم أنقد پيله-سۊس؟</t>
+          <t>ايتأ پيله سئب مرأ فأدن</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>فضول</t>
+          <t>بزرگ</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>بچه هم اين قدر فضول؟</t>
+          <t>يک سيب بزرگ به من بده</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>پيلکي</t>
+          <t>پيله-سۊس</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>هأ پيلکي آدم خۊ گب زئنأ نأنه</t>
+          <t>زأکم أنقد پيله-سۊس؟</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>بزرگى</t>
+          <t>فضول</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>آدم به اين بزرگى حرف زدنش را بلد نيست</t>
+          <t>بچه هم اين قدر فضول؟</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>پينيک</t>
+          <t>پيلکي</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>تي رختان همه پينيک بزئکه</t>
+          <t>هأ پيلکي آدم خۊ گب زئنأ نأنه</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>وصله</t>
+          <t>بزرگى</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>تمام لباس‌هايت وصله خورده است</t>
+          <t>آدم به اين بزرگى حرف زدنش را بلد نيست</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>پينيک-پاره</t>
+          <t>پينيک</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>پينيک-پاره رختان تازگي داب بؤبؤسته</t>
+          <t>تي رختان همه پينيک بزئکه</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>وصله پينه</t>
+          <t>وصله</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>لباس‌هاى وصله پينه جديدن مد شده است</t>
+          <t>تمام لباس‌هايت وصله خورده است</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>پيچ واپيچ</t>
+          <t>پينيک-پاره</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>أ مؤضۊ خأيلي پيچ واپيچه</t>
+          <t>پينيک-پاره رختان تازگي داب بؤبؤسته</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>پيچيده</t>
+          <t>وصله پينه</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>اين موضوع خيلى پيچيده است</t>
+          <t>لباس‌هاى وصله پينه جديدن مد شده است</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>پيچأ</t>
+          <t>پيچ واپيچ</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>پيچأ کيشکائان ٚ ره جۊخۊفته دأره</t>
+          <t>أ مؤضۊ خأيلي پيچ واپيچه</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>گربه</t>
+          <t>پيچيده</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>گربه برای جوجه‌ها کمين کرده است</t>
+          <t>اين موضوع خيلى پيچيده است</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>پيچاک</t>
+          <t>پيچأ</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>پيچاک ٚ وينجي-يأ مأنه</t>
+          <t>پيچأ کيشکائان ٚ ره جۊخۊفته دأره</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>چسبنده</t>
+          <t>گربه</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>مانند سقز چسبنده است</t>
+          <t>گربه برای جوجه‌ها کمين کرده است</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>پٚل</t>
+          <t>پيچاک</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>ترأ پٚلأ کۊنمه</t>
+          <t>پيچاک ٚ وينجي-يأ مأنه</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>تکه تکه</t>
+          <t>چسبنده</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>تو را تکه تکه مى‌کنم</t>
+          <t>مانند سقز چسبنده است</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>پٚلف</t>
+          <t>پٚل</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>تي پٚلفˇ شکمأ آبأ کۊن</t>
+          <t>ترأ پٚلأ کۊنمه</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>چاق</t>
+          <t>تکه تکه</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>شکم چاق‌ات را آب کن</t>
+          <t>تو را تکه تکه مى‌کنم</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>پۊتار</t>
+          <t>پٚلف</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>أيأ چي فۊکۊدي، پۊتارأ کۊده</t>
+          <t>تي پٚلفˇ شکمأ آبأ کۊن</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>مورچه</t>
+          <t>چاق</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>اين‌جا چه ريختی، مورچه جمع شده است</t>
+          <t>شکم چاق‌ات را آب کن</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>پۊتۊ</t>
+          <t>پۊتار</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>ترأ پۊتۊ دشان</t>
+          <t>أيأ چي فۊکۊدي، پۊتارأ کۊده</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>پتو</t>
+          <t>مورچه</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>پتو روی خودت بينداز</t>
+          <t>اين‌جا چه ريختی، مورچه جمع شده است</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>پۊر</t>
+          <t>پۊتۊ</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>اۊتۊبۊسانأ آدم دره پۊر</t>
+          <t>ترأ پۊتۊ دشان</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>پر</t>
+          <t>پتو</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>اتوبوس‌ها پر از آدم است</t>
+          <t>پتو روی خودت بينداز</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>پۊرأ کۊن</t>
+          <t>پۊر</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>تيانأ آب دۊکۊن پۊرأ کۊن</t>
+          <t>اۊتۊبۊسانأ آدم دره پۊر</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>پرکن</t>
+          <t>پر</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>ديگ را آب بريز پر کن</t>
+          <t>اتوبوس‌ها پر از آدم است</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>پۊرد</t>
+          <t>پۊرأ کۊن</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>آهين پۊردأ دٚواريم دئه فأرسيم</t>
+          <t>تيانأ آب دۊکۊن پۊرأ کۊن</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>پل</t>
+          <t>پرکن</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>از پل آهنى عبور کنيم ديگر مى‌رسيم</t>
+          <t>ديگ را آب بريز پر کن</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>پۊسته ايشکنه-ئي</t>
+          <t>پۊرد</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>خؤشحالي جأ پۊسته ايشکنه-ئي</t>
+          <t>آهين پۊردأ دٚواريم دئه فأرسيم</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>بشکن می‌زد</t>
+          <t>پل</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>از خوشحالى بشکن مى‌زد</t>
+          <t>از پل آهنى عبور کنيم ديگر مى‌رسيم</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>پۊشت</t>
+          <t>پۊسته ايشکنه-ئي</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>بۊشۊ فأندر درˇ پۊشت کي ايسأ؟</t>
+          <t>خؤشحالي جأ پۊسته ايشکنه-ئي</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>پشت</t>
+          <t>بشکن می‌زد</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>برو نگاه کن پشت در کيست؟</t>
+          <t>از خوشحالى بشکن مى‌زد</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>پۊشتابد</t>
+          <t>پۊشت</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>تي پۊشتابدأ اۊسان بيشيم</t>
+          <t>بۊشۊ فأندر درˇ پۊشت کي ايسأ؟</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>کوله‌پشتى</t>
+          <t>پشت</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>کوله پشتى‌ات را بردار برويم</t>
+          <t>برو نگاه کن پشت در کيست؟</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>پۊشتين</t>
+          <t>پۊشتابد</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>گيلک گيلکˇ پۊشتينه</t>
+          <t>تي پۊشتابدأ اۊسان بيشيم</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>پشتيبان</t>
+          <t>کوله‌پشتى</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>گيلک پشتيبان گيلک است</t>
+          <t>کوله پشتى‌ات را بردار برويم</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>پۊل</t>
+          <t>پۊشتين</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>ايپچه پۊل دأري مرأ فأدي؟</t>
+          <t>گيلک گيلکˇ پۊشتينه</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>پول</t>
+          <t>پشتيبان</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>کمى پول دارى به من بدهى؟</t>
+          <t>گيلک پشتيبان گيلک است</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>پۊلۊک</t>
+          <t>پۊل</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>مي پرهنˇ پۊلۊک بکفته</t>
+          <t>ايپچه پۊل دأري مرأ فأدي؟</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>دگمه</t>
+          <t>پول</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>دگمه پيراهنم افتاده است</t>
+          <t>کمى پول دارى به من بدهى؟</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>چأکۊنم</t>
+          <t>پۊلۊک</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>کرأ خانه چأکۊنم</t>
+          <t>مي پرهنˇ پۊلۊک بکفته</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>می‌سازم</t>
+          <t>دگمه</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>در حال ساختن خانه هستم</t>
+          <t>دگمه پيراهنم افتاده است</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>چأکۊنه</t>
+          <t>چأکۊنم</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>بۊشۊ رمضانˇ ويجا، اۊن تأنه تي کارأ چأکۊنه</t>
+          <t>کرأ خانه چأکۊنم</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>درست می‌کند</t>
+          <t>می‌سازم</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>نزد رمضان برو، او مى‌تواند کار تو را درست کند</t>
+          <t>در حال ساختن خانه هستم</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>چؤ</t>
+          <t>چأکۊنه</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>چؤ دکفتهˈنأ باور کۊدن نوأ</t>
+          <t>بۊشۊ رمضانˇ ويجا، اۊن تأنه تي کارأ چأکۊنه</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>شايعه</t>
+          <t>درست می‌کند</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>شايعه‌ها را باور نکن</t>
+          <t>نزد رمضان برو، او مى‌تواند کار تو را درست کند</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>چؤرنيلي</t>
+          <t>چؤ</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>أ چؤرنيلي پرهنأ ديرۊ بيهئم</t>
+          <t>چؤ دکفتهˈنأ باور کۊدن نوأ</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>بنفش</t>
+          <t>شايعه</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>اين پيراهن بنفش را ديروز خريدم</t>
+          <t>شايعه‌ها را باور نکن</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>چئل</t>
+          <t>چؤرنيلي</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>چئل سال پيش أيأ بامؤبۊم</t>
+          <t>أ چؤرنيلي پرهنأ ديرۊ بيهئم</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>چهل</t>
+          <t>بنفش</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>چهل سال قبل اين‌جا آمده بودم</t>
+          <t>اين پيراهن بنفش را ديروز خريدم</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>چا</t>
+          <t>چئل</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>بۊشۊ چا جأ آب واغۊش</t>
+          <t>چئل سال پيش أيأ بامؤبۊم</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>چاه</t>
+          <t>چهل</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>برو از چاه آب بکش</t>
+          <t>چهل سال قبل اين‌جا آمده بودم</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>چار</t>
+          <t>چا</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>چار تا کۊئي مرأ فأدن</t>
+          <t>بۊشۊ چا جأ آب واغۊش</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>چهار</t>
+          <t>چاه</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>چهار عدد کدو به من بده</t>
+          <t>برو از چاه آب بکش</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>چارپاچه</t>
+          <t>چار</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>چارپاچه نيشته بۊ</t>
+          <t>چار تا کۊئي مرأ فأدن</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>چارزانو</t>
+          <t>چهار</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>چارزانو نشسته بود</t>
+          <t>چهار عدد کدو به من بده</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>چارچاک</t>
+          <t>چارپاچه</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>درأ چارچاک بنأ بۊشؤ</t>
+          <t>چارپاچه نيشته بۊ</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>چارطاق</t>
+          <t>چارزانو</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>در را چهارطاق گذاشت و رفت</t>
+          <t>چارزانو نشسته بود</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>چالٚکا</t>
+          <t>چارچاک</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>چالٚکا ميان دنکفي</t>
+          <t>درأ چارچاک بنأ بۊشؤ</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>چاله</t>
+          <t>چارطاق</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>داخل چاله نيفتى</t>
+          <t>در را چهارطاق گذاشت و رفت</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>چان</t>
+          <t>چالٚکا</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>وحيدأ بيدئم ايتأ کيسه بج بچانأ گيفته بۊ شؤن دۊبۊ</t>
+          <t>چالٚکا ميان دنکفي</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>دوش</t>
+          <t>چاله</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>وحيد را ديدم يک کيسه برنج بر روى دوش گرفته بود مى‌رفت</t>
+          <t>داخل چاله نيفتى</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>چاپ چاپ</t>
+          <t>چان</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>بۊلبۊل کرأ چاپ چاپ زنه</t>
+          <t>وحيدأ بيدئم ايتأ کيسه بج بچانأ گيفته بۊ شؤن دۊبۊ</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>چهچهه</t>
+          <t>دوش</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>بلبل دارد چهچهه مى‌زند</t>
+          <t>وحيد را ديدم يک کيسه برنج بر روى دوش گرفته بود مى‌رفت</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>چاپلا</t>
+          <t>چاپ چاپ</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>خؤشالي جأ کرأ چاپلا زنه</t>
+          <t>بۊلبۊل کرأ چاپ چاپ زنه</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>کف زدن</t>
+          <t>چهچهه</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>از خوشحالى دارد کف مى‌زند</t>
+          <t>بلبل دارد چهچهه مى‌زند</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>چاک</t>
+          <t>چاپلا</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>غذا بۊ هأ چاکأ پۊرأ کۊده</t>
+          <t>خؤشالي جأ کرأ چاپلا زنه</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>فضاى اطراف</t>
+          <t>کف زدن</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>بوى غذا فضای اطراف را پر کرده است</t>
+          <t>از خوشحالى دارد کف مى‌زند</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>چرت ٚ چۊلا</t>
+          <t>چاک</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>دئه کرأ چرت ٚ چۊلا گي</t>
+          <t>غذا بۊ هأ چاکأ پۊرأ کۊده</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>مزخرف</t>
+          <t>فضاى اطراف</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>ديگر داری مزخرف می‌گويی</t>
+          <t>بوى غذا فضای اطراف را پر کرده است</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>چرخ</t>
+          <t>چرت ٚ چۊلا</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>ديرۊ ايتأ چرخ بيهئم</t>
+          <t>دئه کرأ چرت ٚ چۊلا گي</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>دوچرخه</t>
+          <t>مزخرف</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>ديروز يک دوچرخه خريدم</t>
+          <t>ديگر داری مزخرف می‌گويی</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>چرخستن</t>
+          <t>چرخ</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>هأچين أمي دؤر چرخستن دريم</t>
+          <t>ديرۊ ايتأ چرخ بيهئم</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>چرخيدن</t>
+          <t>دوچرخه</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>بيخودى داريم دور خودمان مى‌چرخيم</t>
+          <t>ديروز يک دوچرخه خريدم</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>چف</t>
+          <t>چرخستن</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>أنقد بۊخۊفتي چف بۊکۊدي</t>
+          <t>هأچين أمي دؤر چرخستن دريم</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>ورم</t>
+          <t>چرخيدن</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>آن قدر خوابيدی ورم کردی</t>
+          <t>بيخودى داريم دور خودمان مى‌چرخيم</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>چفت</t>
+          <t>چف</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>درأ چفتأ کۊدي؟</t>
+          <t>أنقد بۊخۊفتي چف بۊکۊدي</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>بستن</t>
+          <t>ورم</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>در را بستى؟</t>
+          <t>آن قدر خوابيدی ورم کردی</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>چفتن</t>
+          <t>چفت</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>سرمائي چفتن دٚوستيم</t>
+          <t>درأ چفتأ کۊدي؟</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>يخ بستن</t>
+          <t>بستن</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>از سرما يخ زديم</t>
+          <t>در را بستى؟</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>چمچه</t>
+          <t>چفتن</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>چمچهٰ نيده-ئي؟</t>
+          <t>سرمائي چفتن دٚوستيم</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>ملاقه</t>
+          <t>يخ بستن</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>ملاقه را نديدی؟</t>
+          <t>از سرما يخ زديم</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>چنتا</t>
+          <t>چمچه</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>تۊ چنتا آغۊز دأري؟</t>
+          <t>چمچهٰ نيده-ئي؟</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>چند عدد</t>
+          <t>ملاقه</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>تو چند عدد گردو دارى؟</t>
+          <t>ملاقه را نديدی؟</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>چندر</t>
+          <t>چنتا</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>شيمي خانه چندر دۊره</t>
+          <t>تۊ چنتا آغۊز دأري؟</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>چه‌قدر</t>
+          <t>چند عدد</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>خانۀ شما چه قدر دور است</t>
+          <t>تو چند عدد گردو دارى؟</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>چيسه</t>
+          <t>چندر</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>أن دئه چيسه؟</t>
+          <t>شيمي خانه چندر دۊره</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>چيست</t>
+          <t>چه‌قدر</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>اين ديگر چيست؟</t>
+          <t>خانۀ شما چه قدر دور است</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>چيشتن</t>
+          <t>چيسه</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>کرأ غذائانأ ايتأ ايتأ چيشتن درم</t>
+          <t>أن دئه چيسه؟</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>مزه کردن</t>
+          <t>چيست</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>دارم يکى يکى غذاها را مزه می‌کنم</t>
+          <t>اين ديگر چيست؟</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>چيچال</t>
+          <t>چيشتن</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>تي دسأ چيچالˇ آبˇ مرأ بۊشؤر</t>
+          <t>کرأ غذائانأ ايتأ ايتأ چيشتن درم</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>ولرم</t>
+          <t>مزه کردن</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>دست‌هايت را با آب ولرم بشور</t>
+          <t>دارم يکى يکى غذاها را مزه می‌کنم</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>چيچيني</t>
+          <t>چيچال</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>ايمرۊ ايتأ چيچيني-يم نيدئم</t>
+          <t>تي دسأ چيچالˇ آبˇ مرأ بۊشؤر</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>گنجشک</t>
+          <t>ولرم</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>امروز يک گنجشک هم نديدم</t>
+          <t>دست‌هايت را با آب ولرم بشور</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>چٚسک</t>
+          <t>چيچيني</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>هرچي بۊگؤفتم تۊنم بيأ، بۊگؤفت چٚسک</t>
+          <t>ايمرۊ ايتأ چيچيني-يم نيدئم</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>خير</t>
+          <t>گنجشک</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>هرچه گفتم تو هم بيا، گفت خير</t>
+          <t>امروز يک گنجشک هم نديدم</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>چٚلک</t>
+          <t>چٚسک</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>چرک</t>
+          <t>هرچي بۊگؤفتم تۊنم بيأ، بۊگؤفت چٚسک</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>تي چٚلک ٚ پرهنأ بۊشؤر</t>
+          <t>خير</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>پيراهن چرک‌ات را بشور</t>
+          <t>هرچه گفتم تو هم بيا، گفت خير</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>چکˇ پر</t>
+          <t>چٚلک</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>سينه-آبأ نأنستي هأچين چکˇ پر زئي</t>
+          <t>چرک</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>دست و پا زدن</t>
+          <t>تي چٚلک ٚ پرهنأ بۊشؤر</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>شنا کردن بلد نبود بيهوده دست و پا مى‌زد</t>
+          <t>پيراهن چرک‌ات را بشور</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>چکستن</t>
+          <t>چکˇ پر</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>ايسپندأ فأندر چۊتؤ چکستن دره</t>
+          <t>سينه-آبأ نأنستي هأچين چکˇ پر زئي</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>پريدن اسفند هنگام سوختن</t>
+          <t>دست و پا زدن</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>اسفند را نگاه کن چگونه دارد مى‌پرد</t>
+          <t>شنا کردن بلد نبود بيهوده دست و پا مى‌زد</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>چۊ</t>
+          <t>چکستن</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>خؤشکˇ چۊ هيمه ره خؤبه</t>
+          <t>ايسپندأ فأندر چۊتؤ چکستن دره</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>چوب</t>
+          <t>پريدن اسفند هنگام سوختن</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>چوب خشک براى هيزم خوب است</t>
+          <t>اسفند را نگاه کن چگونه دارد مى‌پرد</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>چۊب</t>
+          <t>چۊ</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>چۊب خۊري-يأ</t>
+          <t>خؤشکˇ چۊ هيمه ره خؤبه</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>کتک</t>
+          <t>چوب</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>کتک مى‌خورى‌ها</t>
+          <t>چوب خشک براى هيزم خوب است</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>چۊتؤ</t>
+          <t>چۊب</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>أن چۊتؤ کار کۊنه؟</t>
+          <t>چۊب خۊري-يأ</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>چگونه</t>
+          <t>کتک</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>اين چگونه کار مى‌کند؟</t>
+          <t>کتک مى‌خورى‌ها</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>چۊل</t>
+          <t>چۊتؤ</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>تي کفشأ چۊل بۊکۊدي</t>
+          <t>أن چۊتؤ کار کۊنه؟</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>گل</t>
+          <t>چگونه</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>کفش‌ات را گلى کردی</t>
+          <t>اين چگونه کار مى‌کند؟</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>چۊله</t>
+          <t>چۊل</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>ايتأ کيبريت چۊله مرأ فأدن</t>
+          <t>تي کفشأ چۊل بۊکۊدي</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>چوب کبريت</t>
+          <t>گل</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>يک دانه چۊب کبريت به من بده</t>
+          <t>کفش‌ات را گلى کردی</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>چۊم</t>
+          <t>چۊله</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>مي چۊم نيدينه</t>
+          <t>ايتأ کيبريت چۊله مرأ فأدن</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>چشم</t>
+          <t>چوب کبريت</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>چشمم نمى‌بيند</t>
+          <t>يک دانه چۊب کبريت به من بده</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>چۊم برا</t>
+          <t>چۊم</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>چۊم برا بيم أکه أئيدي</t>
+          <t>مي چۊم نيدينه</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>منتظر</t>
+          <t>چشم</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>منتظر بودم چه وقت می‌آييد</t>
+          <t>چشمم نمى‌بيند</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>چۊم دکف</t>
+          <t>چۊم برا</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>أ خانه چۊم دکف بد ني-يه</t>
+          <t>چۊم برا بيم أکه أئيدي</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>چشم انداز</t>
+          <t>منتظر</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>چشم انداز اين خانه بد نيست</t>
+          <t>منتظر بودم چه وقت می‌آييد</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>چۊمليز</t>
+          <t>چۊم دکف</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>مرأ چۊمليز بيگيفته</t>
+          <t>أ خانه چۊم دکف بد ني-يه</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>نيشگون</t>
+          <t>چشم انداز</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>من را نيشگون گرفت</t>
+          <t>چشم انداز اين خانه بد نيست</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>کؤتر</t>
+          <t>چۊمليز</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>کؤترانأ سرأدن</t>
+          <t>مرأ چۊمليز بيگيفته</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>کبوتر</t>
+          <t>نيشگون</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>کبوترها را رها کن</t>
+          <t>من را نيشگون گرفت</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>کؤر</t>
+          <t>کؤتر</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>اۊ کؤرأ فأندر</t>
+          <t>کؤترانأ سرأدن</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>دختر</t>
+          <t>کبوتر</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>آن دختر را نگاه کن</t>
+          <t>کبوترها را رها کن</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>کؤرأ</t>
+          <t>کؤر</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>کؤرأ بيشيم؟</t>
+          <t>اۊ کؤرأ فأندر</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>کدام طرف</t>
+          <t>دختر</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>کدام طرف برويم؟</t>
+          <t>آن دختر را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>کؤل</t>
+          <t>کؤرأ</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>بنأ خۊ کؤل ٚ سر ببرده</t>
+          <t>کؤرأ بيشيم؟</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>شانه</t>
+          <t>کدام طرف</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>روی شانه‌اش گذاشت و برد</t>
+          <t>کدام طرف برويم؟</t>
         </is>
       </c>
     </row>
@@ -20448,95 +20448,95 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>أ چاقۊ کؤله</t>
+          <t>بنأ خۊ کؤل ٚ سر ببرده</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>کند</t>
+          <t>شانه</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>اين چاقو کند است</t>
+          <t>روی شانه‌اش گذاشت و برد</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>کؤيأ</t>
+          <t>کؤل</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>مي شارژر کؤيأ نهأ؟</t>
+          <t>أ چاقۊ کؤله</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>کجا</t>
+          <t>کند</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>شارژر من کجا است؟</t>
+          <t>اين چاقو کند است</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>کؤيأن</t>
+          <t>کؤيأ</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>اۊشانأ کؤيأن بيده-ئي؟</t>
+          <t>مي شارژر کؤيأ نهأ؟</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>کجاها</t>
+          <t>کجا</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>آن‌ها را کجاها ديده‌اى؟</t>
+          <t>شارژر من کجا است؟</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>کؤيتأ</t>
+          <t>کؤيأن</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>کؤيتأ دسکش تي شين ايسه؟</t>
+          <t>اۊشانأ کؤيأن بيده-ئي؟</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>کدام يک</t>
+          <t>کجاها</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>کدام دستکش مال تو است؟</t>
+          <t>آن‌ها را کجاها ديده‌اى؟</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>کؤيدانه</t>
+          <t>کؤيتأ</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>کؤيدانه-يأ گي؟</t>
+          <t>کؤيتأ دسکش تي شين ايسه؟</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -20546,513 +20546,513 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>کدام يک را مى‌گويى؟</t>
+          <t>کدام دستکش مال تو است؟</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>کئخۊدامردي</t>
+          <t>کؤيدانه</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>تي کئخۊدامردي ته ره بدر خۊره</t>
+          <t>کؤيدانه-يأ گي؟</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>داورى</t>
+          <t>کدام يک</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>داورى‌ات به درد خودت مى‌خورد</t>
+          <t>کدام يک را مى‌گويى؟</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>کئن کئن</t>
+          <t>کئخۊدامردي</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>کئن کئن دأشتي أکه أئي</t>
+          <t>تي کئخۊدامردي ته ره بدر خۊره</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>اين پا آن پا کردن</t>
+          <t>داورى</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>اين پا آن پا مى‌کرد که چه زمان مى‌آيى</t>
+          <t>داورى‌ات به درد خودت مى‌خورد</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>کئواني</t>
+          <t>کئن کئن</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>مي کۊجي کؤر خؤره ايتأ کئواني-يه</t>
+          <t>کئن کئن دأشتي أکه أئي</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>کدبانو</t>
+          <t>اين پا آن پا کردن</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>دختر کوچک من برای خودش يک کدبانو است</t>
+          <t>اين پا آن پا مى‌کرد که چه زمان مى‌آيى</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>کاباسي</t>
+          <t>کئواني</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>کاباسي بأورديم</t>
+          <t>مي کۊجي کؤر خؤره ايتأ کئواني-يه</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>نحسی</t>
+          <t>کدبانو</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>دچار نحسی شديم</t>
+          <t>دختر کوچک من برای خودش يک کدبانو است</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>کاس</t>
+          <t>کاباسي</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>تي کاس ٚ چۊمأ قۊربان</t>
+          <t>کاباسي بأورديم</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>چشم‌آبی</t>
+          <t>نحسی</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>به قربان چشم‌های آبی‌ات</t>
+          <t>دچار نحسی شديم</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>کاسه</t>
+          <t>کاس</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>ايتأ کاسه پلا مه ره دۊکۊن</t>
+          <t>تي کاس ٚ چۊمأ قۊربان</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>بشقاب</t>
+          <t>چشم‌آبی</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>يک بشقاب پلو براى من بريز</t>
+          <t>به قربان چشم‌های آبی‌ات</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>کال</t>
+          <t>کاسه</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>أ به کاله</t>
+          <t>ايتأ کاسه پلا مه ره دۊکۊن</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>نارس</t>
+          <t>بشقاب</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>اين به نارس است</t>
+          <t>يک بشقاب پلو براى من بريز</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>کاکا</t>
+          <t>کال</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>ايپچه کاکا چأکۊن بۊخۊريم</t>
+          <t>أ به کاله</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>نوعی شيرينی خانگی</t>
+          <t>نارس</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>کمی شيرينی درست کن بخوريم</t>
+          <t>اين به نارس است</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>کخ</t>
+          <t>کاکا</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>أ شامپؤ کخ نۊکۊنه</t>
+          <t>ايپچه کاکا چأکۊن بۊخۊريم</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>کف</t>
+          <t>نوعی شيرينی خانگی</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>اين شامپو کف نمی‌کند</t>
+          <t>کمی شيرينی درست کن بخوريم</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>کرأ</t>
+          <t>کخ</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>کرأ شم</t>
+          <t>أ شامپؤ کخ نۊکۊنه</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>در حال</t>
+          <t>کف</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>در حال رفتن هستم</t>
+          <t>اين شامپو کف نمی‌کند</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>کردˇکار</t>
+          <t>کرأ</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>تي کردˇ کارأ چأکۊن</t>
+          <t>کرأ شم</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>رفتار</t>
+          <t>در حال</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>رفتارت را درست کن</t>
+          <t>در حال رفتن هستم</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>کرچ</t>
+          <t>کردˇکار</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>خأيلي کرچه</t>
+          <t>تي کردˇ کارأ چأکۊن</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>ترد</t>
+          <t>رفتار</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>خيلی ترد است</t>
+          <t>رفتارت را درست کن</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>کرک</t>
+          <t>کرچ</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>کرکان کتکتاس کۊنيدي</t>
+          <t>خأيلي کرچه</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>مرغ</t>
+          <t>ترد</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>مرغ‌ها قدقد می‌کنند</t>
+          <t>خيلی ترد است</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>کش</t>
+          <t>کرک</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>اۊن کيسه اۊ کش نيشته</t>
+          <t>کرکان کتکتاس کۊنيدي</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>گوشه</t>
+          <t>مرغ</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>آن کيست آن گوشه نشسته است</t>
+          <t>مرغ‌ها قدقد می‌کنند</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>کشه</t>
+          <t>کش</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>بيأ مي کشه</t>
+          <t>اۊن کيسه اۊ کش نيشته</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>آغوش</t>
+          <t>گوشه</t>
         </is>
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>در آغوش من بيا</t>
+          <t>آن کيست آن گوشه نشسته است</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>کشک</t>
+          <t>کشه</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>دۊمرتبه کشکأ بؤستي؟</t>
+          <t>بيأ مي کشه</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>لوس</t>
+          <t>آغوش</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>دوباره لوس شدى؟</t>
+          <t>در آغوش من بيا</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>کفته</t>
+          <t>کشک</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>تي ميداد زيمينˇ سر کفته</t>
+          <t>دۊمرتبه کشکأ بؤستي؟</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>افتاده است</t>
+          <t>لوس</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>مداد تو روى زمين افتاده است</t>
+          <t>دوباره لوس شدى؟</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>کل</t>
+          <t>کفته</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>بۊشۊ تي کلˇ سرأ چاره بۊکۊن</t>
+          <t>تي ميداد زيمينˇ سر کفته</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>کچل</t>
+          <t>افتاده است</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>برو براى سر کچل‌ات فکرى بکن</t>
+          <t>مداد تو روى زمين افتاده است</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>کلانه</t>
+          <t>کل</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانهٰ بأور</t>
+          <t>بۊشۊ تي کلˇ سرأ چاره بۊکۊن</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>منقل</t>
+          <t>کچل</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>برو آن منقل را بياور</t>
+          <t>برو براى سر کچل‌ات فکرى بکن</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>کلاچ ملاچي</t>
+          <t>کلانه</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>أميرحۊسئن ايتأ کلاچ ملاچي پرهن دۊکۊده بۊ</t>
+          <t>بۊشۊ اۊ کلانهٰ بأور</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>سياه و سفيد</t>
+          <t>منقل</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>اميرحسين يک پيراهن سياه و سفيد پوشيده بود</t>
+          <t>برو آن منقل را بياور</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>کلماجين</t>
+          <t>کلاچ ملاچي</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>أ سئب کلماجينه</t>
+          <t>أميرحۊسئن ايتأ کلاچ ملاچي پرهن دۊکۊده بۊ</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>کرم‌خورده</t>
+          <t>سياه و سفيد</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>اين سيب کرم‌خورده است</t>
+          <t>اميرحسين يک پيراهن سياه و سفيد پوشيده بود</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>کله</t>
+          <t>کلماجين</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>بۊشۊ کلهٰ وأگيران</t>
+          <t>أ سئب کلماجينه</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>اجاق</t>
+          <t>کرم‌خورده</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>برو اجاق را روشن کن</t>
+          <t>اين سيب کرم‌خورده است</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>کي</t>
+          <t>کله</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>کي تأنه مي مرأ بأيه؟</t>
+          <t>بۊشۊ کلهٰ وأگيران</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>چه کسى</t>
+          <t>اجاق</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>چه کسى مى‌تواند با من بيايد؟</t>
+          <t>برو اجاق را روشن کن</t>
         </is>
       </c>
     </row>
@@ -21064,303 +21064,303 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>من کي بامؤم</t>
+          <t>کي تأنه مي مرأ بأيه؟</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>که</t>
+          <t>چه کسى</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>من که آمدم</t>
+          <t>چه کسى مى‌تواند با من بيايد؟</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>کيتاب</t>
+          <t>کي</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>أ کيتاب مي شينه</t>
+          <t>من کي بامؤم</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>کتاب</t>
+          <t>که</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>اين کتاب مال من است</t>
+          <t>من که آمدم</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>کيس</t>
+          <t>کيتاب</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>اۊطي-يأ مرأ فأدن مي رختان کيس بۊخۊرده</t>
+          <t>أ کيتاب مي شينه</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>چروک لباس</t>
+          <t>کتاب</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>اطو را به من بده لباس‌هايم چروک شده است</t>
+          <t>اين کتاب مال من است</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>کيشؤ</t>
+          <t>کيس</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>دمباريک کيشؤ دۊرۊن ننأبۊ</t>
+          <t>اۊطي-يأ مرأ فأدن مي رختان کيس بۊخۊرده</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>کشؤ</t>
+          <t>چروک لباس</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>دمباريک داخل کشو نبود</t>
+          <t>اطو را به من بده لباس‌هايم چروک شده است</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>کيشکا</t>
+          <t>کيشؤ</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>کيشکائانأ فۊران</t>
+          <t>دمباريک کيشؤ دۊرۊن ننأبۊ</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>جوجه مرغ</t>
+          <t>کشؤ</t>
         </is>
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>جوجه‌ها را دور کن</t>
+          <t>دمباريک داخل کشو نبود</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>کٚتٚل</t>
+          <t>کيشکا</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>بۊشۊ ايتأ کٚتٚل مه ره بأور بينيشينم</t>
+          <t>کيشکائانأ فۊران</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>چهارپايه کوچک</t>
+          <t>جوجه مرغ</t>
         </is>
       </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t>برو يک چهارپايه کوچک برایم بياور بنشينم</t>
+          <t>جوجه‌ها را دور کن</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>کٚوار</t>
+          <t>کٚتٚل</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>بۊشؤم سبزي بيهينم کٚوار نأشتي نيهئم</t>
+          <t>بۊشۊ ايتأ کٚتٚل مه ره بأور بينيشينم</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>تره</t>
+          <t>چهارپايه کوچک</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>رفتم سبزی بخرم تره نداشت نخريدم</t>
+          <t>برو يک چهارپايه کوچک برایم بياور بنشينم</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>کٚکٚج</t>
+          <t>کٚوار</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>سبزي-يان ٚ دۊرۊن کٚکٚج مرأ ويشتر خۊش أيه</t>
+          <t>بۊشؤم سبزي بيهينم کٚوار نأشتي نيهئم</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>شاهی</t>
+          <t>تره</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>ميان سبزی‌ها شاهی را بيشتر دوس دارم</t>
+          <t>رفتم سبزی بخرم تره نداشت نخريدم</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>کۊ</t>
+          <t>کٚکٚج</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>أئي بيشيم کۊ؟</t>
+          <t>سبزي-يان ٚ دۊرۊن کٚکٚج مرأ ويشتر خۊش أيه</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>کوه</t>
+          <t>شاهی</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>می‌آيی به کوه برويم؟</t>
+          <t>ميان سبزی‌ها شاهی را بيشتر دوس دارم</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>کۊجدانه</t>
+          <t>کۊ</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>مي کۊجدانه برارأ نيده-ئي؟</t>
+          <t>أئي بيشيم کۊ؟</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>کوچک</t>
+          <t>کوه</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>برادر کوچک من را نديده‌اى؟</t>
+          <t>می‌آيی به کوه برويم؟</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>کۊدن</t>
+          <t>کۊجدانه</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>چي کۊدن دري؟</t>
+          <t>مي کۊجدانه برارأ نيده-ئي؟</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>انجام دادن</t>
+          <t>کوچک</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>دارى چه کارى انجام مى‌دهى؟</t>
+          <t>برادر کوچک من را نديده‌اى؟</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>کۊده</t>
+          <t>کۊدن</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>هوا سردأ کۊده</t>
+          <t>چي کۊدن دري؟</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>شده است</t>
+          <t>انجام دادن</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>هوا سرد شده است</t>
+          <t>دارى چه کارى انجام مى‌دهى؟</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>کۊر ٚ قۊقۊ</t>
+          <t>کۊده</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>کۊر ٚ قۊقۊيأ فأندر</t>
+          <t>هوا سردأ کۊده</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>جغد</t>
+          <t>شده است</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>جغد را نگاه کن</t>
+          <t>هوا سرد شده است</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>کۊرش</t>
+          <t>کۊر ٚ قۊقۊ</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>مي غذا همه کۊرشأ بؤ</t>
+          <t>کۊر ٚ قۊقۊيأ فأندر</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>جزغاله</t>
+          <t>جغد</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>تمام غذايم جزغاله شد</t>
+          <t>جغد را نگاه کن</t>
         </is>
       </c>
     </row>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>مي غذا کۊرشأ بؤ</t>
+          <t>مي غذا همه کۊرشأ بؤ</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -21382,381 +21382,381 @@
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>غذايم جزغاله شد</t>
+          <t>تمام غذايم جزغاله شد</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>کۊشتن</t>
+          <t>کۊرش</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>پۊتارانأ کۊشتن نوأئيد</t>
+          <t>مي غذا کۊرشأ بؤ</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>کشتن</t>
+          <t>جزغاله</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>مورچه‌ها را نکشيد</t>
+          <t>غذايم جزغاله شد</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>کۊلک</t>
+          <t>کۊشتن</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>کاموا کۊلکأ بؤسته</t>
+          <t>پۊتارانأ کۊشتن نوأئيد</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>درهم</t>
+          <t>کشتن</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>کاموا درهم شده است</t>
+          <t>مورچه‌ها را نکشيد</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>کۊمۊش</t>
+          <t>کۊلک</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>کۊمۊشأ فأندر</t>
+          <t>کاموا کۊلکأ بؤسته</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>لاک‌پشت</t>
+          <t>درهم</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>لاک‌پشت را نگاه کن</t>
+          <t>کاموا درهم شده است</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>کۊناکۊنا</t>
+          <t>کۊمۊش</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>کۊچه دوسته بۊ کۊناکۊنا وأگردستيم</t>
+          <t>کۊمۊشأ فأندر</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>عقب‌عقب</t>
+          <t>لاک‌پشت</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>کوچه بسته بود عقب‌عقب برگشتيم</t>
+          <t>لاک‌پشت را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>کۊنه</t>
+          <t>کۊناکۊنا</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>أ دارأ وا کۊنه جأ کأندن</t>
+          <t>کۊچه دوسته بۊ کۊناکۊنا وأگردستيم</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>ريشه</t>
+          <t>عقب‌عقب</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>اين درخت را بايد از ريشه کند</t>
+          <t>کوچه بسته بود عقب‌عقب برگشتيم</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>کۊنه مۊنه</t>
+          <t>کۊنه</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>کۊنه مۊنه کۊدن نوأ</t>
+          <t>أ دارأ وا کۊنه جأ کأندن</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>ترديد</t>
+          <t>ريشه</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>ترديد نکن</t>
+          <t>اين درخت را بايد از ريشه کند</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>کۊکلا</t>
+          <t>کۊنه مۊنه</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>کۊکلا ديچئن دره</t>
+          <t>کۊنه مۊنه کۊدن نوأ</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>توطئه</t>
+          <t>ترديد</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>دارد توطئه مى‌کند</t>
+          <t>ترديد نکن</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>گؤرخانه</t>
+          <t>کۊکلا</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>ايمرۊ گؤرخانه وارش بۊ</t>
+          <t>کۊکلا ديچئن دره</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>رعد</t>
+          <t>توطئه</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>امروز باران با رعد بود</t>
+          <t>دارد توطئه مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>گؤزکا</t>
+          <t>گؤرخانه</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>گؤزکايأ بيده-ئي؟</t>
+          <t>ايمرۊ گؤرخانه وارش بۊ</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>قۊرباغه</t>
+          <t>رعد</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>قورباغه را ديدی؟</t>
+          <t>امروز باران با رعد بود</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>گئسه</t>
+          <t>گؤزکا</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>خۊ مۊئانأ گئسه بۊکۊد</t>
+          <t>گؤزکايأ بيده-ئي؟</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>بافتن مو</t>
+          <t>قۊرباغه</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>موهايش را بافت</t>
+          <t>قورباغه را ديدی؟</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>گاب</t>
+          <t>گئسه</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>رجب خۊ گابأ فۊرؤختن دره</t>
+          <t>خۊ مۊئانأ گئسه بۊکۊد</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>گاو</t>
+          <t>بافتن مو</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>رجب دارد گاوش را می‌فروشد</t>
+          <t>موهايش را بافت</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>گاره</t>
+          <t>گاب</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>جغلهٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>رجب خۊ گابأ فۊرؤختن دره</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>گهواره</t>
+          <t>گاو</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>نوزاد را ببر در گهواره بخوابان</t>
+          <t>رجب دارد گاوش را می‌فروشد</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>گاز</t>
+          <t>گاره</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>مي گاز مرأ در کۊنه</t>
+          <t>جغلهٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>دندان</t>
+          <t>گهواره</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>دندانم درد مى‌کند</t>
+          <t>نوزاد را ببر در گهواره بخوابان</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>گاز ايشکره</t>
+          <t>گاز</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>ديشب خۊفته-بي گاز ايشکره کۊدي</t>
+          <t>مي گاز مرأ در کۊنه</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>ساييدن دندان‌ها به هم</t>
+          <t>دندان</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>ديشب خواب بودی دندان‌هايت را به هم مى‌ساييدى</t>
+          <t>دندانم درد مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>گاچ</t>
+          <t>گاز ايشکره</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>تي پا گاچه مگه؟</t>
+          <t>ديشب خۊفته-بي گاز ايشکره کۊدي</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>پاى ناراست</t>
+          <t>ساييدن دندان‌ها به هم</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>مگر پاى تو ناراست است؟</t>
+          <t>ديشب خواب بودی دندان‌هايت را به هم مى‌ساييدى</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>گاگٚلٚف</t>
+          <t>گاچ</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>گاگٚلٚف أرأ دٚوار کۊنم</t>
+          <t>تي پا گاچه مگه؟</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>بعضی اوقات</t>
+          <t>پاى ناراست</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>بعضی اوقات از اين طرف عبور مى‌کنم</t>
+          <t>مگر پاى تو ناراست است؟</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>گب</t>
+          <t>گاگٚلٚف</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>أ گب کي گؤفتن درم اۊرارسالانˇ شينه</t>
+          <t>گاگٚلٚف أرأ دٚوار کۊنم</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>سخن</t>
+          <t>بعضی اوقات</t>
         </is>
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>اين سخن که دارم مى‌گويم براى سال‌هاى دور است</t>
+          <t>بعضی اوقات از اين طرف عبور مى‌کنم</t>
         </is>
       </c>
     </row>
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>مي أمرأ گب بزن</t>
+          <t>أ گب کي گؤفتن درم اۊرارسالانˇ شينه</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -21778,183 +21778,183 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>با من سخن بگو</t>
+          <t>اين سخن که دارم مى‌گويم براى سال‌هاى دور است</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>گب خبربر</t>
+          <t>گب</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>گب خبربرˇ مرأ نوأسي گب زئن</t>
+          <t>مي أمرأ گب بزن</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>خبرچين</t>
+          <t>سخن</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>با خبرچين نبايد حرف زد</t>
+          <t>با من سخن بگو</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>گب گبˇ سر</t>
+          <t>گب خبربر</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>گب گبˇ سر بأورده</t>
+          <t>گب خبربرˇ مرأ نوأسي گب زئن</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>حرف تو حرف</t>
+          <t>خبرچين</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>حرف تو حرف آورد</t>
+          <t>با خبرچين نبايد حرف زد</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>گرا دن</t>
+          <t>گب گبˇ سر</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>گرا دن بأيه</t>
+          <t>گب گبˇ سر بأورده</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>سُر بده</t>
+          <t>حرف تو حرف</t>
         </is>
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>سر بده بيايد</t>
+          <t>حرف تو حرف آورد</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>گراپئت</t>
+          <t>گرا دن</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>أيأ بيأ بينم يه گراپئت</t>
+          <t>گرا دن بأيه</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>کج و کوله</t>
+          <t>سُر بده</t>
         </is>
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>بيا اين‌جا ببينم آهاى کج و کوله</t>
+          <t>سر بده بيايد</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>گرد ٚکله</t>
+          <t>گراپئت</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>أمي گردˇ کلهˈ لاف دکفته</t>
+          <t>أيأ بيأ بينم يه گراپئت</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>دورهمی</t>
+          <t>کج و کوله</t>
         </is>
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>دورهمى ما به‌هم خورد</t>
+          <t>بيا اين‌جا ببينم آهاى کج و کوله</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>گردستن</t>
+          <t>گرد ٚکله</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>هرأ گردستن ديبيم</t>
+          <t>أمي گردˇ کلهˈ لاف دکفته</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>قدم زدن</t>
+          <t>دورهمی</t>
         </is>
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>همين اطراف قدم مى‌زديم</t>
+          <t>دورهمى ما به‌هم خورد</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>گردن پسه</t>
+          <t>گردستن</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>مي گردن پسه-يأ جۊش بزه</t>
+          <t>هرأ گردستن ديبيم</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>پشت گردن</t>
+          <t>قدم زدن</t>
         </is>
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>پشت گردنم جوش زده است</t>
+          <t>همين اطراف قدم مى‌زديم</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>گردي</t>
+          <t>گردن پسه</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>چي دۊمبال گردي؟</t>
+          <t>مي گردن پسه-يأ جۊش بزه</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>جستجو می‌کنی</t>
+          <t>پشت گردن</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>چه را جستجو می‌کنی؟</t>
+          <t>پشت گردنم جوش زده است</t>
         </is>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki.xlsx
+++ b/Excel/Top 1000 Words in Gilaki.xlsx
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>أ مائي خاش زياد دأره</t>
+          <t>أ مائي پۊر خاش دأره</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>اۊ کۊکۊ-يأ وأگردان</t>
+          <t>اۊ شامي-یأ وأگردان</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>آن کتلت را پشت و رو کن</t>
+          <t>آن شامی را پشت و رو کن</t>
         </is>
       </c>
     </row>
